--- a/challenges memo.xlsx
+++ b/challenges memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuojieLi\Desktop\Cloud\AZURE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84D1581-0F38-422D-8D4F-B81BF0F2381A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B7DE4-3FB5-45A4-8E94-01DB58646D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="24983" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -10293,6 +10293,312 @@
   </si>
   <si>
     <t>网络安全组和服务终结点能帮助保护虚拟机和 Azure 服务，使其免遭未经授权的网络访问。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>创建虚拟网络和网络安全组</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>首先要创建一个资源组、虚拟网络和用于服务器资源的子网。 然后创建网络安全组。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>请记住，默认规则会拒绝进入虚拟网络的所有入站流量，除非该流量来自其他虚拟网络。 “拒绝所有入站”规则阻止了刚刚尝试的入站 SSH 连接。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>创建安全规则以防止 Web 访问</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>现在要添加一条规则，让 AppServer 能通过 HTTP 与 DataServer 进行通信，但是 DataServer 不能通过 HTTP 与 AppServer 进行通信。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>虚拟网络服务终结点</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>使用虚拟网络服务终结点，通过提供对 Azure 服务的直接连接来扩展 Azure 中的专用地址空间。 使用服务终结点可以对 Azure 资源进行保护，使其只对你的虚拟网络开放。 服务流量将保留在 Azure 主干网上，不会转出至 Internet</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Azure 存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Azure SQL 数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,Azure Cosmos DB,Azure Key Vault,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Azure 服务总线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,Azure Data Lake</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>Azure 服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF171717"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>务终结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF171717"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>点可用于多种服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF171717"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF171717"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，例如</t>
+    </r>
+  </si>
+  <si>
+    <t>要启用服务终结点，需要完成两项操作：</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>关闭对该服务的公共访问。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>将服务终结点添加到虚拟网络。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Azure 备份是一项服务，你可用它来备份 Azure 虚拟机、本地服务器、Azure 文件共享，还可备份在 Azure VM 上运行的 SQL Server 或 SAP HANA，以及其他应用程序工作负载。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>通过 Azure 备份，还可使在 Azure VM 中运行的工作负载（例如 SQL Server 或 SAP HANA）具有额外的备份和还原选项。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>从这个意义上说，如果存在网络或断电等问题，你可使用可用性区域。 对于区域范围的灾难（如自然灾害），使用 Site Recovery。 在出现意外数据丢失、数据损坏或勒索软件攻击的情况时使用备份。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Azure 备份与 Azure Site Recovery</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Azure VM 通过按用户定义的时间间隔拍摄基础磁盘的快照，并根据客户定义的策略将这些快照传输到恢复服务保管库来进行备份。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure 备份使用恢复服务保管库管理和存储备份数据。 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>快照是虚拟机上所有磁盘的时间点备份。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>根据快照的拍摄方式及其包含的内容，可实现不同级别的一致性：</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>应用程序一致</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>文件系统一致</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>在恢复期间，计算机内不会出现损坏。 但在启动过程中，安装的应用程序需自我清理以实现一致性。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>崩溃一致</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>可定义备份的备份频率和保留期。 目前，VM 备份可每天或每周触发，并且可存储多年。 备份策略支持两个访问层 - 快照层和保管库层。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>快照层：所有快照都存储在本地，最长期限为 5 天。 这称为“快照层”。 对于所有类型的操作恢复，建议你从快照进行恢复，因为这样做要快得多。 此功能称为“即时还原”。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>保管库层：所有快照都额外传输到保管库，从而增强安全性并延长保留期。 此时，恢复点类型将更改为“快照和保管库”。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Azure 备份提供了许多还原 VM 的方法。 如前所述，你可立即从快照层（最佳操作恢复）或从保管库层还原。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">创建新 VM	</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>从还原点快速创建并正常运行一个基本的 VM。 新 VM 必须在源 VM 所在的区域创建。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">还原磁盘	</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>还原某个 VM 磁盘，然后使用它来创建新的 VM。 磁盘将复制到指定的资源组。 Azure 备份提供了一个模板来帮助你自定义和创建 VM。 你也将磁盘附加到现有 VM 或创建新的 VM。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>若要自定义 VM、添加在备份时不存在的配置设置，或添加必须使用模板或 PowerShell 配置的设置，则此选项非常有用。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">替换现有项	</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可还原某个磁盘，并用它来替换现有 VM 上的磁盘。 Azure 备份在替换磁盘之前获取现有 VM 的快照，并将其存储到指定的暂存位置。 已连接到 VM 的现有磁盘将替换为选定的还原点。 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>当前 VM 必须存在。 如果已将其删除，则无法使用此选项。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">跨区域（次要区域）	</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>跨区域还原可用于还原次要区域（即 Azure 配对区域）中的 Azure VM。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>此功能适用于以下选项：</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>创建 VM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>还原磁盘</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>目前不支持替换现有磁盘选项。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Azure Monitor</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Azure Monitor 是一种收集和分析遥测数据的服务。 该服务有助于实现云应用程序以及本地资源和应用程序的最大性能和可用性。 它显示了应用程序的执行方式，并可识别应用程序存在的任何问题。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Monitor 会收集两种基本类型的数据 - 指标和日志。 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>由于 Azure Monitor 是自动系统，因此在创建 Azure 资源（如虚拟机和 Web 应用）后，它会立即从这些源中收集数据。 可通过以下方式扩展 Azure Monitor 收集的数据：</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">启用诊断：对于某些资源（如 Azure SQL 数据库），仅在启用诊断日志记录后才会收到有关资源的完整信息。 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>添加代理：对于虚拟机，可安装 Log Analytics 代理，并将其配置为将数据发送到 Log Analytics 工作区。 此代理会增加发送到 Azure Monitor 的信息量。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">开发人员可能还想要从自定义代码（例如 Web 应用、Azure 函数或移动应用）将数据发送到 Azure Monitor。 他们通过调用数据收集器 API 来发送数据。 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>若要检索、合并和分析数据，请指定要在 Azure Monitor 日志中运行的查询。 使用 Kusto 查询语言编写日志查询，该语言也可用于 Azure 数据资源管理器。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>你可以在 Microsoft Azure 门户中找到 Log Analytics 工具，并用它来运行示例查询或自行创建查询</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用 Kusto 查询语言来查询在 Azure 中运行的服务的日志信息。 Kusto 查询是处理数据并返回结果的只读请求。 </t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -10300,7 +10606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10394,6 +10700,19 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171717"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10415,7 +10734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10424,6 +10743,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -10704,10 +11024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="P137" sqref="P137"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="R199" sqref="R199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.25"/>
@@ -11236,6 +11556,256 @@
         <v>102</v>
       </c>
     </row>
+    <row r="153" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="16.3" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B162" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B164" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B165" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="16.3" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B172" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B176" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C177" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C178" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="C179" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B181" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B182" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B185" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B186" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="D187" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B188" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="D189" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="D191" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="E192" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="E193" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="E194" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B205" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B206" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B207" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="B210" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
